--- a/Line Managers.xlsx
+++ b/Line Managers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pebnic- Alex\Documents\Coding Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FEMI\Documents\Employee Exit System\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="188">
   <si>
     <t>No</t>
   </si>
@@ -345,13 +345,256 @@
   </si>
   <si>
     <t>full name</t>
+  </si>
+  <si>
+    <t>Adeyemi Nasiru</t>
+  </si>
+  <si>
+    <t>Seyi Adegbohun</t>
+  </si>
+  <si>
+    <t>Tolulope Adetola</t>
+  </si>
+  <si>
+    <t>Opeyemi Akinleye</t>
+  </si>
+  <si>
+    <t>Kehinde Akintola</t>
+  </si>
+  <si>
+    <t>Omodele Alebiosu</t>
+  </si>
+  <si>
+    <t>Gideon Faseyi</t>
+  </si>
+  <si>
+    <t>Njoku Emmanuel</t>
+  </si>
+  <si>
+    <t>Franklin Ogbonna</t>
+  </si>
+  <si>
+    <t>Taiwo Ogundeji</t>
+  </si>
+  <si>
+    <t>Aramide</t>
+  </si>
+  <si>
+    <t>Sunday Olorunfemi</t>
+  </si>
+  <si>
+    <t>Uchenna Onwuka</t>
+  </si>
+  <si>
+    <t>Ezekiel Onyemaobi</t>
+  </si>
+  <si>
+    <t>Michael Osiberu</t>
+  </si>
+  <si>
+    <t>Ahmed Rabiu</t>
+  </si>
+  <si>
+    <t>Audu Siaka</t>
+  </si>
+  <si>
+    <t>Qudus Yakub</t>
+  </si>
+  <si>
+    <t>Oluwole Adekoya</t>
+  </si>
+  <si>
+    <t>Okaku Promise</t>
+  </si>
+  <si>
+    <t>Onyeka Obije</t>
+  </si>
+  <si>
+    <t>adeyemi.nasiru@pebnic.com</t>
+  </si>
+  <si>
+    <t>seyi.adegbohun@pebnic.com</t>
+  </si>
+  <si>
+    <t>tolulope.adetola@pebnic.com</t>
+  </si>
+  <si>
+    <t>opeyemi.akinleye@pebnic.com</t>
+  </si>
+  <si>
+    <t>kehinde.akintola@pebnic.com</t>
+  </si>
+  <si>
+    <t>omodele.alebiosu@pebnic.com</t>
+  </si>
+  <si>
+    <t>gideon.faseyi@pebnic.com</t>
+  </si>
+  <si>
+    <t>njoku.emmanuel@pebnic.com</t>
+  </si>
+  <si>
+    <t>franklin.ogbonna@pebnic.com</t>
+  </si>
+  <si>
+    <t>taiwo.ogundeji@pebnic.com</t>
+  </si>
+  <si>
+    <t>aramide@gz-equip.com</t>
+  </si>
+  <si>
+    <t>sunday.olorunfemi@pebnic.com</t>
+  </si>
+  <si>
+    <t>uchenna.onwuka@pebnic.com</t>
+  </si>
+  <si>
+    <t>ezekiel.onyemaobi@pebnic.com</t>
+  </si>
+  <si>
+    <t>michael.osiberu@pebnic.com</t>
+  </si>
+  <si>
+    <t>ahmed.rabiu@pebnic.com</t>
+  </si>
+  <si>
+    <t>audu.siaka@pebnic.com</t>
+  </si>
+  <si>
+    <t>qudus.yakub@pebnic.com</t>
+  </si>
+  <si>
+    <t>oluwole.adekoya@pebnic.com</t>
+  </si>
+  <si>
+    <t>okaku.promise@pebnic.com</t>
+  </si>
+  <si>
+    <t>onyeka.obije@pebnic.com</t>
+  </si>
+  <si>
+    <t>HEAD OFFICE</t>
+  </si>
+  <si>
+    <t>NBL Owerri</t>
+  </si>
+  <si>
+    <t>Chi Limited</t>
+  </si>
+  <si>
+    <t>International Breweries Sagamu</t>
+  </si>
+  <si>
+    <t>NBC Ikeja Ops</t>
+  </si>
+  <si>
+    <t>NBC OWERRI</t>
+  </si>
+  <si>
+    <t>NBL Aba</t>
+  </si>
+  <si>
+    <t>GZEP Location</t>
+  </si>
+  <si>
+    <t>A &amp; P Foods</t>
+  </si>
+  <si>
+    <t>International Breweries Onitsha</t>
+  </si>
+  <si>
+    <t>NBC Asejire</t>
+  </si>
+  <si>
+    <t>International Breweries Ilesha</t>
+  </si>
+  <si>
+    <t>NBC Abuja</t>
+  </si>
+  <si>
+    <t>Guiness Benin</t>
+  </si>
+  <si>
+    <t>NBC Kano</t>
+  </si>
+  <si>
+    <t>NBC Port Harcourt</t>
+  </si>
+  <si>
+    <t>International Breweries PHC</t>
+  </si>
+  <si>
+    <t>adeyemi.nasiru</t>
+  </si>
+  <si>
+    <t>seyi.adegbohun</t>
+  </si>
+  <si>
+    <t>tolulope.adetola</t>
+  </si>
+  <si>
+    <t>opeyemi.akinleye</t>
+  </si>
+  <si>
+    <t>kehinde.akintola</t>
+  </si>
+  <si>
+    <t>omodele.alebiosu</t>
+  </si>
+  <si>
+    <t>gideon.faseyi</t>
+  </si>
+  <si>
+    <t>njoku.emmanuel</t>
+  </si>
+  <si>
+    <t>franklin.ogbonna</t>
+  </si>
+  <si>
+    <t>taiwo.ogundeji</t>
+  </si>
+  <si>
+    <t>aramide</t>
+  </si>
+  <si>
+    <t>sunday.olorunfemi</t>
+  </si>
+  <si>
+    <t>uchenna.onwuka</t>
+  </si>
+  <si>
+    <t>ezekiel.onyemaobi</t>
+  </si>
+  <si>
+    <t>michael.osiberu</t>
+  </si>
+  <si>
+    <t>ahmed.rabiu</t>
+  </si>
+  <si>
+    <t>audu.siaka</t>
+  </si>
+  <si>
+    <t>qudus.yakub</t>
+  </si>
+  <si>
+    <t>oluwole.adekoya</t>
+  </si>
+  <si>
+    <t>okaku.promise</t>
+  </si>
+  <si>
+    <t>onyeka.obije</t>
+  </si>
+  <si>
+    <t>Technical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +612,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,11 +641,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,17 +929,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1399,6 +1650,552 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Line Managers.xlsx
+++ b/Line Managers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="204">
   <si>
     <t>No</t>
   </si>
@@ -588,13 +588,61 @@
   </si>
   <si>
     <t>Technical</t>
+  </si>
+  <si>
+    <t>Joseph Ajao</t>
+  </si>
+  <si>
+    <t>Ayobami Afolayan</t>
+  </si>
+  <si>
+    <t>Jide Odunaro</t>
+  </si>
+  <si>
+    <t>Gbenga Ako</t>
+  </si>
+  <si>
+    <t>joseph.ajao@pebnic.com</t>
+  </si>
+  <si>
+    <t>ayobami.afolayan@pebnic.com</t>
+  </si>
+  <si>
+    <t>jide.odunaro@pebnic.com</t>
+  </si>
+  <si>
+    <t>gbenga.ako@pebnic.com</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>NB </t>
+  </si>
+  <si>
+    <t>FMCG</t>
+  </si>
+  <si>
+    <t>NBC </t>
+  </si>
+  <si>
+    <t>joseph.ajao</t>
+  </si>
+  <si>
+    <t>ayobami.afolayan</t>
+  </si>
+  <si>
+    <t>jide.odunaro</t>
+  </si>
+  <si>
+    <t>gbenga.ako</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +663,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -641,13 +696,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,6 +2252,110 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
